--- a/biology/Zoologie/Azuré_de_Brown/Azuré_de_Brown.xlsx
+++ b/biology/Zoologie/Azuré_de_Brown/Azuré_de_Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_Brown</t>
+          <t>Azuré_de_Brown</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyommatus menelaos
 L’Azuré de Brown (Polyommatus menelaos) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Polyommatus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_Brown</t>
+          <t>Azuré_de_Brown</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polyommatus menelaos nommé par J. Brown en 1976[1].
-Noms vernaculaires
-L'Azuré de Brown se nomme en anglais Taygetos Blue et en grec Γαλανή λυκαένα του Ταϋγέτου[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polyommatus menelaos nommé par J. Brown en 1976.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_Brown</t>
+          <t>Azuré_de_Brown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu pâle bordé d'une bande noire aux antérieures et d'une ligne submarginale de points noirs aux postérieures avec une frange blanche, celui de la femelle est marron clair avec une ligne submarginale de points orange visible aux postérieures et la même frange blanche.
-Le revers est gris ocré clair orné de points noirs cerclés de blanc et d'une ligne submarginale de marques jaune orangé.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azuré de Brown se nomme en anglais Taygetos Blue et en grec Γαλανή λυκαένα του Ταϋγέτου,.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_Brown</t>
+          <t>Azuré_de_Brown</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,16 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne au stade de jeune chenille. Celles-ci sont ensuite soignées par des fourmis, Camponotus aethiops.
-Il vole en une génération de début juin à fin juillet[4]
-Plantes hôtes
-Sa plante hôte est un Astragale, Astragalus taygeteus[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu pâle bordé d'une bande noire aux antérieures et d'une ligne submarginale de points noirs aux postérieures avec une frange blanche, celui de la femelle est marron clair avec une ligne submarginale de points orange visible aux postérieures et la même frange blanche.
+Le revers est gris ocré clair orné de points noirs cerclés de blanc et d'une ligne submarginale de marques jaune orangé.
 </t>
         </is>
       </c>
@@ -594,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_Brown</t>
+          <t>Azuré_de_Brown</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,16 +625,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il n'est présent qu'en Grèce, au monts Taygète et en particulier au col de Langhanda[4].
-Biotope
-Il réside dans des vallons abrités.
-Protection
-Pas de statut de protection particulier.
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne au stade de jeune chenille. Celles-ci sont ensuite soignées par des fourmis, Camponotus aethiops.
+Il vole en une génération de début juin à fin juillet
 </t>
         </is>
       </c>
@@ -629,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_Brown</t>
+          <t>Azuré_de_Brown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,12 +663,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est un Astragale, Astragalus taygeteus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_de_Brown</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_Brown</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'est présent qu'en Grèce, au monts Taygète et en particulier au col de Langhanda.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_Brown</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_Brown</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des vallons abrités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_de_Brown</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_Brown</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_de_Brown</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_Brown</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Polyommatus menelaos Brown, 1976[5].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Polyommatus menelaos Brown, 1976.
 </t>
         </is>
       </c>
